--- a/src/test/resources/FHEO-Testdata4.xlsx
+++ b/src/test/resources/FHEO-Testdata4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\IdeaProjects\formservice-testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B1E1BC-27B5-4390-BC46-291AC55E91C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3217BC-20DD-4B44-B3F4-1D9B4784A2DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/test/resources/FHEO-Testdata4.xlsx
+++ b/src/test/resources/FHEO-Testdata4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\IdeaProjects\formservice-testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704F893D-D5D2-429B-9CE3-90F5BF1DB687}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBF6180-18A1-42FE-AE07-B6127AE49567}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,9 +177,6 @@
     <t>disaltOtherRelationshipDescription</t>
   </si>
   <si>
-    <t>03-04-2021</t>
-  </si>
-  <si>
     <t>disaltContactEmail</t>
   </si>
   <si>
@@ -1027,6 +1024,9 @@
   </si>
   <si>
     <t>Updik368</t>
+  </si>
+  <si>
+    <t>05-12-2021</t>
   </si>
 </sst>
 </file>
@@ -1975,10 +1975,10 @@
   <dimension ref="A1:AK98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD98"/>
+      <selection pane="bottomRight" activeCell="T2" sqref="T2:T98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2133,7 +2133,7 @@
         <v>41</v>
       </c>
       <c r="AK1" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2164,7 +2164,7 @@
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
       <c r="N2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
@@ -2176,16 +2176,16 @@
       </c>
       <c r="S2" s="19"/>
       <c r="T2" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="X2" s="13">
         <v>2224568749</v>
@@ -2193,14 +2193,14 @@
       <c r="Y2" s="19"/>
       <c r="Z2" s="19"/>
       <c r="AA2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB2" s="19"/>
       <c r="AC2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE2" s="13">
         <v>80011</v>
@@ -2240,7 +2240,7 @@
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -2252,16 +2252,16 @@
       </c>
       <c r="S3" s="19"/>
       <c r="T3" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="X3" s="13">
         <v>2224568749</v>
@@ -2269,14 +2269,14 @@
       <c r="Y3" s="19"/>
       <c r="Z3" s="19"/>
       <c r="AA3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB3" s="19"/>
       <c r="AC3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD3" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD3" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE3" s="13">
         <v>80011</v>
@@ -2316,7 +2316,7 @@
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
       <c r="N4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
@@ -2328,16 +2328,16 @@
       </c>
       <c r="S4" s="19"/>
       <c r="T4" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W4" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="X4" s="13">
         <v>2224568749</v>
@@ -2345,14 +2345,14 @@
       <c r="Y4" s="19"/>
       <c r="Z4" s="19"/>
       <c r="AA4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB4" s="19"/>
       <c r="AC4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD4" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE4" s="13">
         <v>80011</v>
@@ -2392,7 +2392,7 @@
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="N5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
@@ -2404,16 +2404,16 @@
       </c>
       <c r="S5" s="19"/>
       <c r="T5" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="W5" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="X5" s="13">
         <v>2224568749</v>
@@ -2421,14 +2421,14 @@
       <c r="Y5" s="19"/>
       <c r="Z5" s="19"/>
       <c r="AA5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB5" s="19"/>
       <c r="AC5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD5" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE5" s="13">
         <v>80011</v>
@@ -2463,7 +2463,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -2471,7 +2471,7 @@
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
@@ -2483,16 +2483,16 @@
       </c>
       <c r="S6" s="19"/>
       <c r="T6" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="W6" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="W6" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="X6" s="13">
         <v>2224568749</v>
@@ -2500,14 +2500,14 @@
       <c r="Y6" s="19"/>
       <c r="Z6" s="19"/>
       <c r="AA6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB6" s="19"/>
       <c r="AC6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD6" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE6" s="13">
         <v>80011</v>
@@ -2542,10 +2542,10 @@
         <v>7</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>10</v>
@@ -2554,10 +2554,10 @@
         <v>8009098909</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>23</v>
@@ -2575,16 +2575,16 @@
         <v>20006</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="W7" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="W7" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="X7" s="13">
         <v>2224568749</v>
@@ -2593,7 +2593,7 @@
         <v>43</v>
       </c>
       <c r="Z7" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA7" s="5" t="s">
         <v>44</v>
@@ -2602,7 +2602,7 @@
         <v>45</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD7" s="13" t="s">
         <v>22</v>
@@ -2617,13 +2617,13 @@
         <v>46</v>
       </c>
       <c r="AH7" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ7" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK7" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2649,10 +2649,10 @@
         <v>7</v>
       </c>
       <c r="I8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>10</v>
@@ -2661,10 +2661,10 @@
         <v>8009098909</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>23</v>
@@ -2682,16 +2682,16 @@
         <v>20006</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="W8" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="W8" s="13" t="s">
-        <v>77</v>
       </c>
       <c r="X8" s="13">
         <v>2224568749</v>
@@ -2700,7 +2700,7 @@
         <v>43</v>
       </c>
       <c r="Z8" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA8" s="5" t="s">
         <v>44</v>
@@ -2709,7 +2709,7 @@
         <v>45</v>
       </c>
       <c r="AC8" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD8" s="13" t="s">
         <v>22</v>
@@ -2724,13 +2724,13 @@
         <v>46</v>
       </c>
       <c r="AH8" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ8" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK8" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2756,10 +2756,10 @@
         <v>7</v>
       </c>
       <c r="I9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>10</v>
@@ -2768,10 +2768,10 @@
         <v>8009098909</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>23</v>
@@ -2789,16 +2789,16 @@
         <v>20006</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="W9" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="W9" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="X9" s="13">
         <v>2224568749</v>
@@ -2807,7 +2807,7 @@
         <v>43</v>
       </c>
       <c r="Z9" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA9" s="5" t="s">
         <v>44</v>
@@ -2816,7 +2816,7 @@
         <v>45</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD9" s="13" t="s">
         <v>22</v>
@@ -2831,13 +2831,13 @@
         <v>46</v>
       </c>
       <c r="AH9" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ9" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK9" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2863,10 +2863,10 @@
         <v>7</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>10</v>
@@ -2875,10 +2875,10 @@
         <v>8009098909</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>23</v>
@@ -2896,16 +2896,16 @@
         <v>20006</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V10" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="W10" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="W10" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="X10" s="13">
         <v>2224568749</v>
@@ -2914,7 +2914,7 @@
         <v>43</v>
       </c>
       <c r="Z10" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA10" s="5" t="s">
         <v>44</v>
@@ -2923,7 +2923,7 @@
         <v>45</v>
       </c>
       <c r="AC10" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD10" s="13" t="s">
         <v>22</v>
@@ -2938,13 +2938,13 @@
         <v>46</v>
       </c>
       <c r="AH10" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ10" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK10" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2970,10 +2970,10 @@
         <v>7</v>
       </c>
       <c r="I11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>10</v>
@@ -2982,10 +2982,10 @@
         <v>8009098909</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>23</v>
@@ -3003,16 +3003,16 @@
         <v>20006</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="W11" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="W11" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="X11" s="13">
         <v>2224568749</v>
@@ -3021,7 +3021,7 @@
         <v>43</v>
       </c>
       <c r="Z11" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA11" s="5" t="s">
         <v>44</v>
@@ -3030,7 +3030,7 @@
         <v>45</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD11" s="13" t="s">
         <v>22</v>
@@ -3045,13 +3045,13 @@
         <v>46</v>
       </c>
       <c r="AH11" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ11" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK11" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3077,10 +3077,10 @@
         <v>7</v>
       </c>
       <c r="I12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>10</v>
@@ -3089,10 +3089,10 @@
         <v>8009098909</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O12" s="8" t="s">
         <v>23</v>
@@ -3110,16 +3110,16 @@
         <v>20006</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="W12" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="W12" s="13" t="s">
-        <v>93</v>
       </c>
       <c r="X12" s="13">
         <v>2224568749</v>
@@ -3128,7 +3128,7 @@
         <v>43</v>
       </c>
       <c r="Z12" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA12" s="5" t="s">
         <v>44</v>
@@ -3137,7 +3137,7 @@
         <v>45</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD12" s="13" t="s">
         <v>22</v>
@@ -3152,13 +3152,13 @@
         <v>46</v>
       </c>
       <c r="AH12" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ12" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK12" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3184,13 +3184,13 @@
         <v>6</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>10</v>
@@ -3199,10 +3199,10 @@
         <v>8009098909</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>23</v>
@@ -3220,16 +3220,16 @@
         <v>20006</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="W13" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="W13" s="13" t="s">
-        <v>97</v>
       </c>
       <c r="X13" s="13">
         <v>2224568749</v>
@@ -3238,16 +3238,16 @@
         <v>43</v>
       </c>
       <c r="Z13" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA13" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AB13" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC13" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD13" s="13" t="s">
         <v>22</v>
@@ -3262,13 +3262,13 @@
         <v>46</v>
       </c>
       <c r="AH13" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ13" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK13" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>10</v>
@@ -3304,10 +3304,10 @@
         <v>8009098909</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>23</v>
@@ -3325,16 +3325,16 @@
         <v>20006</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V14" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="W14" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="W14" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="X14" s="13">
         <v>2224568749</v>
@@ -3343,7 +3343,7 @@
         <v>43</v>
       </c>
       <c r="Z14" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA14" s="5" t="s">
         <v>44</v>
@@ -3352,7 +3352,7 @@
         <v>45</v>
       </c>
       <c r="AC14" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD14" s="13" t="s">
         <v>22</v>
@@ -3367,13 +3367,13 @@
         <v>46</v>
       </c>
       <c r="AH14" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ14" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK14" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3399,7 +3399,7 @@
         <v>7</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="8" t="s">
@@ -3409,10 +3409,10 @@
         <v>8009098909</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>23</v>
@@ -3430,16 +3430,16 @@
         <v>20006</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V15" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="W15" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="W15" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="X15" s="13">
         <v>2224568749</v>
@@ -3448,7 +3448,7 @@
         <v>43</v>
       </c>
       <c r="Z15" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA15" s="5" t="s">
         <v>44</v>
@@ -3457,7 +3457,7 @@
         <v>45</v>
       </c>
       <c r="AC15" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD15" s="13" t="s">
         <v>22</v>
@@ -3472,13 +3472,13 @@
         <v>46</v>
       </c>
       <c r="AH15" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ15" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK15" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3504,20 +3504,20 @@
         <v>7</v>
       </c>
       <c r="I16" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="8">
         <v>8009098909</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>23</v>
@@ -3535,16 +3535,16 @@
         <v>20006</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V16" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="W16" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="W16" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="X16" s="13">
         <v>2224568749</v>
@@ -3553,7 +3553,7 @@
         <v>43</v>
       </c>
       <c r="Z16" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA16" s="5" t="s">
         <v>44</v>
@@ -3562,7 +3562,7 @@
         <v>45</v>
       </c>
       <c r="AC16" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD16" s="13" t="s">
         <v>22</v>
@@ -3577,13 +3577,13 @@
         <v>46</v>
       </c>
       <c r="AH16" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ16" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK16" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3609,20 +3609,20 @@
         <v>7</v>
       </c>
       <c r="I17" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8" t="s">
         <v>23</v>
@@ -3640,16 +3640,16 @@
         <v>20006</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V17" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="W17" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="W17" s="13" t="s">
-        <v>112</v>
       </c>
       <c r="X17" s="13">
         <v>2224568749</v>
@@ -3658,7 +3658,7 @@
         <v>43</v>
       </c>
       <c r="Z17" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA17" s="5" t="s">
         <v>44</v>
@@ -3667,7 +3667,7 @@
         <v>45</v>
       </c>
       <c r="AC17" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD17" s="13" t="s">
         <v>22</v>
@@ -3682,13 +3682,13 @@
         <v>46</v>
       </c>
       <c r="AH17" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ17" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK17" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3714,10 +3714,10 @@
         <v>7</v>
       </c>
       <c r="I18" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>10</v>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="M18" s="21"/>
       <c r="N18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>23</v>
@@ -3745,16 +3745,16 @@
         <v>20006</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V18" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="W18" s="13" t="s">
         <v>115</v>
-      </c>
-      <c r="W18" s="13" t="s">
-        <v>116</v>
       </c>
       <c r="X18" s="13">
         <v>2224568749</v>
@@ -3763,7 +3763,7 @@
         <v>43</v>
       </c>
       <c r="Z18" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA18" s="5" t="s">
         <v>44</v>
@@ -3772,7 +3772,7 @@
         <v>45</v>
       </c>
       <c r="AC18" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD18" s="13" t="s">
         <v>22</v>
@@ -3787,13 +3787,13 @@
         <v>46</v>
       </c>
       <c r="AH18" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ18" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK18" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3819,10 +3819,10 @@
         <v>7</v>
       </c>
       <c r="I19" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>10</v>
@@ -3831,35 +3831,35 @@
         <v>8009098909</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O19" s="19"/>
       <c r="P19" s="8">
         <v>1245</v>
       </c>
       <c r="Q19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S19" s="8">
         <v>20006</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V19" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="W19" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="W19" s="13" t="s">
-        <v>121</v>
       </c>
       <c r="X19" s="13">
         <v>2224568749</v>
@@ -3868,7 +3868,7 @@
         <v>43</v>
       </c>
       <c r="Z19" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA19" s="5" t="s">
         <v>44</v>
@@ -3877,7 +3877,7 @@
         <v>45</v>
       </c>
       <c r="AC19" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD19" s="13" t="s">
         <v>22</v>
@@ -3892,13 +3892,13 @@
         <v>46</v>
       </c>
       <c r="AH19" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ19" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK19" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3924,10 +3924,10 @@
         <v>7</v>
       </c>
       <c r="I20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>10</v>
@@ -3936,35 +3936,35 @@
         <v>8009098909</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R20" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S20" s="8">
         <v>20006</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V20" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="W20" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="W20" s="13" t="s">
-        <v>126</v>
       </c>
       <c r="X20" s="13">
         <v>2224568749</v>
@@ -3973,19 +3973,19 @@
         <v>43</v>
       </c>
       <c r="Z20" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB20" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD20" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD20" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE20" s="13">
         <v>80011</v>
@@ -3997,13 +3997,13 @@
         <v>46</v>
       </c>
       <c r="AH20" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ20" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK20" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4029,10 +4029,10 @@
         <v>7</v>
       </c>
       <c r="I21" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>10</v>
@@ -4041,35 +4041,35 @@
         <v>8009098909</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P21" s="8">
         <v>1245</v>
       </c>
       <c r="Q21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S21" s="19"/>
       <c r="T21" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V21" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="W21" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="X21" s="13">
         <v>2224568749</v>
@@ -4078,19 +4078,19 @@
         <v>43</v>
       </c>
       <c r="Z21" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB21" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD21" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD21" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE21" s="13">
         <v>80011</v>
@@ -4102,13 +4102,13 @@
         <v>46</v>
       </c>
       <c r="AH21" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ21" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK21" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4134,10 +4134,10 @@
         <v>7</v>
       </c>
       <c r="I22" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>10</v>
@@ -4146,56 +4146,56 @@
         <v>8009098909</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P22" s="8">
         <v>1245</v>
       </c>
       <c r="Q22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S22" s="8">
         <v>80011</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U22" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V22" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="W22" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="W22" s="13" t="s">
-        <v>137</v>
       </c>
       <c r="X22" s="13">
         <v>2224568749</v>
       </c>
       <c r="Y22" s="22"/>
       <c r="Z22" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB22" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD22" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD22" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE22" s="13">
         <v>80011</v>
@@ -4207,13 +4207,13 @@
         <v>46</v>
       </c>
       <c r="AH22" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ22" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK22" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4239,10 +4239,10 @@
         <v>7</v>
       </c>
       <c r="I23" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>10</v>
@@ -4251,37 +4251,37 @@
         <v>8009098909</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P23" s="8">
         <v>1245</v>
       </c>
       <c r="Q23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S23" s="8">
         <v>80011</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U23" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V23" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="W23" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="W23" s="13" t="s">
-        <v>142</v>
       </c>
       <c r="X23" s="13">
         <v>2224568749</v>
@@ -4291,16 +4291,16 @@
       </c>
       <c r="Z23" s="23"/>
       <c r="AA23" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB23" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD23" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD23" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE23" s="13">
         <v>80011</v>
@@ -4312,13 +4312,13 @@
         <v>46</v>
       </c>
       <c r="AH23" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ23" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK23" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4344,10 +4344,10 @@
         <v>7</v>
       </c>
       <c r="I24" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>10</v>
@@ -4356,37 +4356,37 @@
         <v>8009098909</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P24" s="8">
         <v>1245</v>
       </c>
       <c r="Q24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S24" s="8">
         <v>80011</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V24" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="W24" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="W24" s="13" t="s">
-        <v>147</v>
       </c>
       <c r="X24" s="13">
         <v>2224568749</v>
@@ -4395,17 +4395,17 @@
         <v>43</v>
       </c>
       <c r="Z24" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB24" s="20"/>
       <c r="AC24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD24" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD24" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE24" s="13">
         <v>80011</v>
@@ -4417,13 +4417,13 @@
         <v>46</v>
       </c>
       <c r="AH24" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ24" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK24" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4449,10 +4449,10 @@
         <v>7</v>
       </c>
       <c r="I25" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>10</v>
@@ -4461,37 +4461,37 @@
         <v>8009098909</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P25" s="8">
         <v>1245</v>
       </c>
       <c r="Q25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S25" s="8">
         <v>80011</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U25" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V25" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="W25" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="W25" s="13" t="s">
-        <v>152</v>
       </c>
       <c r="X25" s="13">
         <v>2224568749</v>
@@ -4500,19 +4500,19 @@
         <v>43</v>
       </c>
       <c r="Z25" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AB25" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC25" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD25" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD25" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE25" s="13">
         <v>80011</v>
@@ -4522,13 +4522,13 @@
         <v>46</v>
       </c>
       <c r="AH25" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ25" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK25" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4554,10 +4554,10 @@
         <v>7</v>
       </c>
       <c r="I26" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>10</v>
@@ -4566,37 +4566,37 @@
         <v>8009098909</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P26" s="8">
         <v>1245</v>
       </c>
       <c r="Q26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R26" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S26" s="8">
         <v>80011</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U26" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V26" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="W26" s="13" t="s">
         <v>156</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>157</v>
       </c>
       <c r="X26" s="13">
         <v>2224568749</v>
@@ -4605,19 +4605,19 @@
         <v>43</v>
       </c>
       <c r="Z26" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB26" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC26" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD26" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD26" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE26" s="13">
         <v>80011</v>
@@ -4627,13 +4627,13 @@
       </c>
       <c r="AG26" s="20"/>
       <c r="AH26" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ26" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK26" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4659,10 +4659,10 @@
         <v>7</v>
       </c>
       <c r="I27" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>10</v>
@@ -4671,37 +4671,37 @@
         <v>8009098909</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P27" s="8">
         <v>1245</v>
       </c>
       <c r="Q27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R27" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S27" s="8">
         <v>80011</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V27" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="W27" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="W27" s="13" t="s">
-        <v>162</v>
       </c>
       <c r="X27" s="13">
         <v>2224568749</v>
@@ -4710,19 +4710,19 @@
         <v>43</v>
       </c>
       <c r="Z27" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB27" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD27" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD27" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE27" s="13">
         <v>80011</v>
@@ -4738,7 +4738,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK27" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4764,10 +4764,10 @@
         <v>7</v>
       </c>
       <c r="I28" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>10</v>
@@ -4776,37 +4776,37 @@
         <v>8009098909</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P28" s="8">
         <v>1245</v>
       </c>
       <c r="Q28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R28" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S28" s="8">
         <v>80011</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V28" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="W28" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="W28" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="X28" s="13">
         <v>2224568749</v>
@@ -4815,19 +4815,19 @@
         <v>43</v>
       </c>
       <c r="Z28" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB28" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD28" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD28" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE28" s="13">
         <v>80011</v>
@@ -4839,14 +4839,14 @@
         <v>46</v>
       </c>
       <c r="AH28" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI28" s="20"/>
       <c r="AJ28" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK28" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4872,10 +4872,10 @@
         <v>7</v>
       </c>
       <c r="I29" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>10</v>
@@ -4884,37 +4884,37 @@
         <v>8009098909</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P29" s="8">
         <v>1245</v>
       </c>
       <c r="Q29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R29" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S29" s="8">
         <v>80011</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U29" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V29" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="W29" s="13" t="s">
         <v>171</v>
-      </c>
-      <c r="W29" s="13" t="s">
-        <v>172</v>
       </c>
       <c r="X29" s="13">
         <v>2224568749</v>
@@ -4923,19 +4923,19 @@
         <v>43</v>
       </c>
       <c r="Z29" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA29" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AB29" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD29" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD29" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE29" s="13">
         <v>80011</v>
@@ -4947,11 +4947,11 @@
         <v>46</v>
       </c>
       <c r="AH29" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ29" s="19"/>
       <c r="AK29" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4977,10 +4977,10 @@
         <v>7</v>
       </c>
       <c r="I30" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>10</v>
@@ -4989,37 +4989,37 @@
         <v>8009098909</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P30" s="8">
         <v>1245</v>
       </c>
       <c r="Q30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R30" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R30" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S30" s="8">
         <v>80011</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U30" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V30" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="W30" s="13" t="s">
         <v>176</v>
-      </c>
-      <c r="W30" s="13" t="s">
-        <v>177</v>
       </c>
       <c r="X30" s="13">
         <v>2224568749</v>
@@ -5028,19 +5028,19 @@
         <v>43</v>
       </c>
       <c r="Z30" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA30" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AB30" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD30" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD30" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE30" s="13">
         <v>80011</v>
@@ -5052,7 +5052,7 @@
         <v>46</v>
       </c>
       <c r="AH30" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ30" s="8">
         <v>8009098908</v>
@@ -5087,7 +5087,7 @@
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
       <c r="N31" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O31" s="19"/>
       <c r="P31" s="19"/>
@@ -5099,16 +5099,16 @@
       </c>
       <c r="S31" s="19"/>
       <c r="T31" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V31" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="W31" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="W31" s="13" t="s">
-        <v>181</v>
       </c>
       <c r="X31" s="13">
         <v>2224568749</v>
@@ -5116,14 +5116,14 @@
       <c r="Y31" s="19"/>
       <c r="Z31" s="19"/>
       <c r="AA31" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB31" s="19"/>
       <c r="AC31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD31" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD31" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE31" s="13">
         <v>80011</v>
@@ -5163,7 +5163,7 @@
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
       <c r="N32" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O32" s="19"/>
       <c r="P32" s="19"/>
@@ -5175,16 +5175,16 @@
       </c>
       <c r="S32" s="19"/>
       <c r="T32" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U32" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V32" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="W32" s="13" t="s">
         <v>183</v>
-      </c>
-      <c r="W32" s="13" t="s">
-        <v>184</v>
       </c>
       <c r="X32" s="13">
         <v>2224568749</v>
@@ -5192,14 +5192,14 @@
       <c r="Y32" s="19"/>
       <c r="Z32" s="19"/>
       <c r="AA32" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB32" s="19"/>
       <c r="AC32" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD32" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD32" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE32" s="13">
         <v>80011</v>
@@ -5234,10 +5234,10 @@
         <v>7</v>
       </c>
       <c r="I33" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J33" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>186</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>10</v>
@@ -5246,10 +5246,10 @@
         <v>8009098909</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O33" s="8" t="s">
         <v>23</v>
@@ -5267,16 +5267,16 @@
         <v>20006</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U33" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V33" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="W33" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="W33" s="13" t="s">
-        <v>188</v>
       </c>
       <c r="X33" s="13">
         <v>2224568749</v>
@@ -5285,7 +5285,7 @@
         <v>43</v>
       </c>
       <c r="Z33" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA33" s="5" t="s">
         <v>44</v>
@@ -5294,7 +5294,7 @@
         <v>45</v>
       </c>
       <c r="AC33" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD33" s="13" t="s">
         <v>22</v>
@@ -5309,13 +5309,13 @@
         <v>46</v>
       </c>
       <c r="AH33" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ33" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK33" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5341,10 +5341,10 @@
         <v>7</v>
       </c>
       <c r="I34" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="J34" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>190</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>10</v>
@@ -5353,10 +5353,10 @@
         <v>8009098909</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O34" s="8" t="s">
         <v>23</v>
@@ -5374,16 +5374,16 @@
         <v>20006</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U34" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V34" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="W34" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="W34" s="13" t="s">
-        <v>192</v>
       </c>
       <c r="X34" s="13">
         <v>2224568749</v>
@@ -5392,7 +5392,7 @@
         <v>43</v>
       </c>
       <c r="Z34" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA34" s="5" t="s">
         <v>44</v>
@@ -5401,7 +5401,7 @@
         <v>45</v>
       </c>
       <c r="AC34" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD34" s="13" t="s">
         <v>22</v>
@@ -5416,13 +5416,13 @@
         <v>46</v>
       </c>
       <c r="AH34" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ34" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK34" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5448,10 +5448,10 @@
         <v>7</v>
       </c>
       <c r="I35" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="J35" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>10</v>
@@ -5460,10 +5460,10 @@
         <v>8009098909</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O35" s="8" t="s">
         <v>23</v>
@@ -5481,16 +5481,16 @@
         <v>20006</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U35" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V35" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="W35" s="13" t="s">
         <v>195</v>
-      </c>
-      <c r="W35" s="13" t="s">
-        <v>196</v>
       </c>
       <c r="X35" s="13">
         <v>2224568749</v>
@@ -5499,7 +5499,7 @@
         <v>43</v>
       </c>
       <c r="Z35" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA35" s="5" t="s">
         <v>44</v>
@@ -5508,7 +5508,7 @@
         <v>45</v>
       </c>
       <c r="AC35" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD35" s="13" t="s">
         <v>22</v>
@@ -5523,13 +5523,13 @@
         <v>46</v>
       </c>
       <c r="AH35" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ35" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK35" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5555,10 +5555,10 @@
         <v>7</v>
       </c>
       <c r="I36" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J36" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>10</v>
@@ -5567,10 +5567,10 @@
         <v>8009098909</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O36" s="8" t="s">
         <v>23</v>
@@ -5588,16 +5588,16 @@
         <v>20006</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U36" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V36" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="W36" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="W36" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="X36" s="13">
         <v>2224568749</v>
@@ -5606,7 +5606,7 @@
         <v>43</v>
       </c>
       <c r="Z36" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA36" s="5" t="s">
         <v>44</v>
@@ -5615,7 +5615,7 @@
         <v>45</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD36" s="13" t="s">
         <v>22</v>
@@ -5630,13 +5630,13 @@
         <v>46</v>
       </c>
       <c r="AH36" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ36" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK36" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5662,10 +5662,10 @@
         <v>7</v>
       </c>
       <c r="I37" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="J37" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>10</v>
@@ -5674,10 +5674,10 @@
         <v>8009098909</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O37" s="8" t="s">
         <v>23</v>
@@ -5695,16 +5695,16 @@
         <v>20006</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U37" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V37" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="W37" s="13" t="s">
         <v>203</v>
-      </c>
-      <c r="W37" s="13" t="s">
-        <v>204</v>
       </c>
       <c r="X37" s="13">
         <v>2224568749</v>
@@ -5713,7 +5713,7 @@
         <v>43</v>
       </c>
       <c r="Z37" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA37" s="5" t="s">
         <v>44</v>
@@ -5722,7 +5722,7 @@
         <v>45</v>
       </c>
       <c r="AC37" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD37" s="13" t="s">
         <v>22</v>
@@ -5737,13 +5737,13 @@
         <v>46</v>
       </c>
       <c r="AH37" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ37" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK37" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5769,10 +5769,10 @@
         <v>7</v>
       </c>
       <c r="I38" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J38" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>206</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>10</v>
@@ -5781,10 +5781,10 @@
         <v>8009098909</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O38" s="8" t="s">
         <v>23</v>
@@ -5802,16 +5802,16 @@
         <v>20006</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U38" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V38" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="W38" s="13" t="s">
         <v>207</v>
-      </c>
-      <c r="W38" s="13" t="s">
-        <v>208</v>
       </c>
       <c r="X38" s="13">
         <v>2224568749</v>
@@ -5820,7 +5820,7 @@
         <v>43</v>
       </c>
       <c r="Z38" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA38" s="5" t="s">
         <v>44</v>
@@ -5829,7 +5829,7 @@
         <v>45</v>
       </c>
       <c r="AC38" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD38" s="13" t="s">
         <v>22</v>
@@ -5844,13 +5844,13 @@
         <v>46</v>
       </c>
       <c r="AH38" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ38" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK38" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5876,13 +5876,13 @@
         <v>6</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I39" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="J39" s="8" t="s">
         <v>209</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>210</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>10</v>
@@ -5891,10 +5891,10 @@
         <v>8009098909</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O39" s="8" t="s">
         <v>23</v>
@@ -5912,16 +5912,16 @@
         <v>20006</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U39" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V39" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="W39" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="W39" s="13" t="s">
-        <v>212</v>
       </c>
       <c r="X39" s="13">
         <v>2224568749</v>
@@ -5930,7 +5930,7 @@
         <v>43</v>
       </c>
       <c r="Z39" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA39" s="5" t="s">
         <v>44</v>
@@ -5939,7 +5939,7 @@
         <v>45</v>
       </c>
       <c r="AC39" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD39" s="13" t="s">
         <v>22</v>
@@ -5954,13 +5954,13 @@
         <v>46</v>
       </c>
       <c r="AH39" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ39" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK39" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5991,7 +5991,7 @@
       <c r="L40" s="19"/>
       <c r="M40" s="19"/>
       <c r="N40" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O40" s="19"/>
       <c r="P40" s="19"/>
@@ -6003,16 +6003,16 @@
       </c>
       <c r="S40" s="19"/>
       <c r="T40" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U40" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V40" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="W40" s="13" t="s">
         <v>213</v>
-      </c>
-      <c r="W40" s="13" t="s">
-        <v>214</v>
       </c>
       <c r="X40" s="13">
         <v>2224568749</v>
@@ -6020,14 +6020,14 @@
       <c r="Y40" s="19"/>
       <c r="Z40" s="19"/>
       <c r="AA40" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB40" s="19"/>
       <c r="AC40" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD40" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD40" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE40" s="13">
         <v>80011</v>
@@ -6067,7 +6067,7 @@
       <c r="L41" s="19"/>
       <c r="M41" s="19"/>
       <c r="N41" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O41" s="19"/>
       <c r="P41" s="19"/>
@@ -6079,16 +6079,16 @@
       </c>
       <c r="S41" s="19"/>
       <c r="T41" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U41" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V41" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="W41" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="W41" s="13" t="s">
-        <v>216</v>
       </c>
       <c r="X41" s="13">
         <v>2224568749</v>
@@ -6096,14 +6096,14 @@
       <c r="Y41" s="19"/>
       <c r="Z41" s="19"/>
       <c r="AA41" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB41" s="19"/>
       <c r="AC41" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD41" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD41" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE41" s="13">
         <v>80011</v>
@@ -6143,7 +6143,7 @@
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
       <c r="N42" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O42" s="19"/>
       <c r="P42" s="19"/>
@@ -6155,16 +6155,16 @@
       </c>
       <c r="S42" s="19"/>
       <c r="T42" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V42" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="W42" s="13" t="s">
         <v>217</v>
-      </c>
-      <c r="W42" s="13" t="s">
-        <v>218</v>
       </c>
       <c r="X42" s="13">
         <v>2224568749</v>
@@ -6172,14 +6172,14 @@
       <c r="Y42" s="19"/>
       <c r="Z42" s="19"/>
       <c r="AA42" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB42" s="19"/>
       <c r="AC42" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD42" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD42" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE42" s="13">
         <v>80011</v>
@@ -6219,7 +6219,7 @@
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
       <c r="N43" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O43" s="19"/>
       <c r="P43" s="19"/>
@@ -6231,16 +6231,16 @@
       </c>
       <c r="S43" s="19"/>
       <c r="T43" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V43" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="W43" s="13" t="s">
         <v>219</v>
-      </c>
-      <c r="W43" s="13" t="s">
-        <v>220</v>
       </c>
       <c r="X43" s="13">
         <v>2224568749</v>
@@ -6248,14 +6248,14 @@
       <c r="Y43" s="19"/>
       <c r="Z43" s="19"/>
       <c r="AA43" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB43" s="19"/>
       <c r="AC43" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD43" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD43" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE43" s="13">
         <v>80011</v>
@@ -6295,7 +6295,7 @@
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
       <c r="N44" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O44" s="19"/>
       <c r="P44" s="19"/>
@@ -6307,16 +6307,16 @@
       </c>
       <c r="S44" s="19"/>
       <c r="T44" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V44" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="W44" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="W44" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="X44" s="13">
         <v>2224568749</v>
@@ -6324,14 +6324,14 @@
       <c r="Y44" s="19"/>
       <c r="Z44" s="19"/>
       <c r="AA44" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB44" s="19"/>
       <c r="AC44" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD44" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD44" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE44" s="13">
         <v>80011</v>
@@ -6366,7 +6366,7 @@
         <v>6</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="19"/>
@@ -6374,7 +6374,7 @@
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O45" s="19"/>
       <c r="P45" s="19"/>
@@ -6386,16 +6386,16 @@
       </c>
       <c r="S45" s="19"/>
       <c r="T45" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V45" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="W45" s="13" t="s">
         <v>223</v>
-      </c>
-      <c r="W45" s="13" t="s">
-        <v>224</v>
       </c>
       <c r="X45" s="13">
         <v>2224568749</v>
@@ -6403,14 +6403,14 @@
       <c r="Y45" s="19"/>
       <c r="Z45" s="19"/>
       <c r="AA45" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB45" s="19"/>
       <c r="AC45" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD45" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD45" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE45" s="13">
         <v>80011</v>
@@ -6450,7 +6450,7 @@
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
       <c r="N46" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O46" s="19"/>
       <c r="P46" s="19"/>
@@ -6462,16 +6462,16 @@
       </c>
       <c r="S46" s="19"/>
       <c r="T46" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V46" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="W46" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="W46" s="13" t="s">
-        <v>226</v>
       </c>
       <c r="X46" s="13">
         <v>2224568749</v>
@@ -6479,14 +6479,14 @@
       <c r="Y46" s="19"/>
       <c r="Z46" s="19"/>
       <c r="AA46" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB46" s="19"/>
       <c r="AC46" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD46" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD46" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE46" s="13">
         <v>80011</v>
@@ -6526,7 +6526,7 @@
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
       <c r="N47" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O47" s="19"/>
       <c r="P47" s="19"/>
@@ -6538,16 +6538,16 @@
       </c>
       <c r="S47" s="19"/>
       <c r="T47" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V47" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="W47" s="13" t="s">
         <v>227</v>
-      </c>
-      <c r="W47" s="13" t="s">
-        <v>228</v>
       </c>
       <c r="X47" s="13">
         <v>2224568749</v>
@@ -6555,14 +6555,14 @@
       <c r="Y47" s="19"/>
       <c r="Z47" s="19"/>
       <c r="AA47" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB47" s="19"/>
       <c r="AC47" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD47" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD47" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE47" s="13">
         <v>80011</v>
@@ -6602,7 +6602,7 @@
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
       <c r="N48" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O48" s="19"/>
       <c r="P48" s="19"/>
@@ -6614,16 +6614,16 @@
       </c>
       <c r="S48" s="19"/>
       <c r="T48" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V48" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="W48" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="W48" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="X48" s="13">
         <v>2224568749</v>
@@ -6631,14 +6631,14 @@
       <c r="Y48" s="19"/>
       <c r="Z48" s="19"/>
       <c r="AA48" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB48" s="19"/>
       <c r="AC48" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD48" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD48" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE48" s="13">
         <v>80011</v>
@@ -6678,7 +6678,7 @@
       <c r="L49" s="19"/>
       <c r="M49" s="19"/>
       <c r="N49" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O49" s="19"/>
       <c r="P49" s="19"/>
@@ -6690,16 +6690,16 @@
       </c>
       <c r="S49" s="19"/>
       <c r="T49" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V49" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="W49" s="13" t="s">
         <v>231</v>
-      </c>
-      <c r="W49" s="13" t="s">
-        <v>232</v>
       </c>
       <c r="X49" s="13">
         <v>2224568749</v>
@@ -6707,14 +6707,14 @@
       <c r="Y49" s="19"/>
       <c r="Z49" s="19"/>
       <c r="AA49" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB49" s="19"/>
       <c r="AC49" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD49" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD49" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE49" s="13">
         <v>80011</v>
@@ -6754,7 +6754,7 @@
       <c r="L50" s="19"/>
       <c r="M50" s="19"/>
       <c r="N50" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O50" s="19"/>
       <c r="P50" s="19"/>
@@ -6766,16 +6766,16 @@
       </c>
       <c r="S50" s="19"/>
       <c r="T50" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V50" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="W50" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="W50" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="X50" s="13">
         <v>2224568749</v>
@@ -6783,14 +6783,14 @@
       <c r="Y50" s="19"/>
       <c r="Z50" s="19"/>
       <c r="AA50" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB50" s="19"/>
       <c r="AC50" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD50" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD50" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE50" s="13">
         <v>80011</v>
@@ -6830,7 +6830,7 @@
       <c r="L51" s="19"/>
       <c r="M51" s="19"/>
       <c r="N51" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O51" s="19"/>
       <c r="P51" s="19"/>
@@ -6842,16 +6842,16 @@
       </c>
       <c r="S51" s="19"/>
       <c r="T51" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V51" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="W51" s="13" t="s">
         <v>235</v>
-      </c>
-      <c r="W51" s="13" t="s">
-        <v>236</v>
       </c>
       <c r="X51" s="13">
         <v>2224568749</v>
@@ -6859,14 +6859,14 @@
       <c r="Y51" s="19"/>
       <c r="Z51" s="19"/>
       <c r="AA51" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB51" s="19"/>
       <c r="AC51" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD51" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD51" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE51" s="13">
         <v>80011</v>
@@ -6901,7 +6901,7 @@
         <v>6</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
@@ -6909,7 +6909,7 @@
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
       <c r="N52" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O52" s="19"/>
       <c r="P52" s="19"/>
@@ -6921,16 +6921,16 @@
       </c>
       <c r="S52" s="19"/>
       <c r="T52" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U52" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V52" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="W52" s="13" t="s">
         <v>237</v>
-      </c>
-      <c r="W52" s="13" t="s">
-        <v>238</v>
       </c>
       <c r="X52" s="13">
         <v>2224568749</v>
@@ -6938,14 +6938,14 @@
       <c r="Y52" s="19"/>
       <c r="Z52" s="19"/>
       <c r="AA52" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB52" s="19"/>
       <c r="AC52" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD52" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD52" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE52" s="13">
         <v>80011</v>
@@ -6980,10 +6980,10 @@
         <v>7</v>
       </c>
       <c r="I53" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J53" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>10</v>
@@ -6992,10 +6992,10 @@
         <v>8009098909</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>23</v>
@@ -7013,16 +7013,16 @@
         <v>20006</v>
       </c>
       <c r="T53" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U53" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V53" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="W53" s="13" t="s">
         <v>239</v>
-      </c>
-      <c r="W53" s="13" t="s">
-        <v>240</v>
       </c>
       <c r="X53" s="13">
         <v>2224568749</v>
@@ -7031,7 +7031,7 @@
         <v>43</v>
       </c>
       <c r="Z53" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA53" s="5" t="s">
         <v>44</v>
@@ -7040,7 +7040,7 @@
         <v>45</v>
       </c>
       <c r="AC53" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD53" s="13" t="s">
         <v>22</v>
@@ -7055,13 +7055,13 @@
         <v>46</v>
       </c>
       <c r="AH53" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ53" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK53" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7087,10 +7087,10 @@
         <v>7</v>
       </c>
       <c r="I54" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J54" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>10</v>
@@ -7099,10 +7099,10 @@
         <v>8009098909</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>23</v>
@@ -7120,16 +7120,16 @@
         <v>20006</v>
       </c>
       <c r="T54" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V54" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="W54" s="13" t="s">
         <v>242</v>
-      </c>
-      <c r="W54" s="13" t="s">
-        <v>243</v>
       </c>
       <c r="X54" s="13">
         <v>2224568749</v>
@@ -7138,7 +7138,7 @@
         <v>43</v>
       </c>
       <c r="Z54" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA54" s="5" t="s">
         <v>44</v>
@@ -7147,7 +7147,7 @@
         <v>45</v>
       </c>
       <c r="AC54" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD54" s="13" t="s">
         <v>22</v>
@@ -7162,13 +7162,13 @@
         <v>46</v>
       </c>
       <c r="AH54" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ54" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK54" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7194,10 +7194,10 @@
         <v>7</v>
       </c>
       <c r="I55" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J55" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="K55" s="8" t="s">
         <v>10</v>
@@ -7206,10 +7206,10 @@
         <v>8009098909</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>23</v>
@@ -7227,16 +7227,16 @@
         <v>20006</v>
       </c>
       <c r="T55" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U55" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V55" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="W55" s="13" t="s">
         <v>244</v>
-      </c>
-      <c r="W55" s="13" t="s">
-        <v>245</v>
       </c>
       <c r="X55" s="13">
         <v>2224568749</v>
@@ -7245,7 +7245,7 @@
         <v>43</v>
       </c>
       <c r="Z55" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA55" s="5" t="s">
         <v>44</v>
@@ -7254,7 +7254,7 @@
         <v>45</v>
       </c>
       <c r="AC55" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD55" s="13" t="s">
         <v>22</v>
@@ -7269,13 +7269,13 @@
         <v>46</v>
       </c>
       <c r="AH55" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ55" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK55" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7301,10 +7301,10 @@
         <v>7</v>
       </c>
       <c r="I56" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J56" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>10</v>
@@ -7313,10 +7313,10 @@
         <v>8009098909</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>23</v>
@@ -7334,16 +7334,16 @@
         <v>20006</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U56" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V56" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="W56" s="13" t="s">
         <v>246</v>
-      </c>
-      <c r="W56" s="13" t="s">
-        <v>247</v>
       </c>
       <c r="X56" s="13">
         <v>2224568749</v>
@@ -7352,7 +7352,7 @@
         <v>43</v>
       </c>
       <c r="Z56" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA56" s="5" t="s">
         <v>44</v>
@@ -7361,7 +7361,7 @@
         <v>45</v>
       </c>
       <c r="AC56" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD56" s="13" t="s">
         <v>22</v>
@@ -7376,13 +7376,13 @@
         <v>46</v>
       </c>
       <c r="AH56" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ56" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK56" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7408,10 +7408,10 @@
         <v>7</v>
       </c>
       <c r="I57" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J57" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>10</v>
@@ -7420,10 +7420,10 @@
         <v>8009098909</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>23</v>
@@ -7441,16 +7441,16 @@
         <v>20006</v>
       </c>
       <c r="T57" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U57" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V57" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="W57" s="13" t="s">
         <v>248</v>
-      </c>
-      <c r="W57" s="13" t="s">
-        <v>249</v>
       </c>
       <c r="X57" s="13">
         <v>2224568749</v>
@@ -7459,7 +7459,7 @@
         <v>43</v>
       </c>
       <c r="Z57" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA57" s="5" t="s">
         <v>44</v>
@@ -7468,7 +7468,7 @@
         <v>45</v>
       </c>
       <c r="AC57" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD57" s="13" t="s">
         <v>22</v>
@@ -7483,13 +7483,13 @@
         <v>46</v>
       </c>
       <c r="AH57" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ57" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK57" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7515,10 +7515,10 @@
         <v>7</v>
       </c>
       <c r="I58" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J58" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="J58" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>10</v>
@@ -7527,10 +7527,10 @@
         <v>8009098909</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>23</v>
@@ -7548,16 +7548,16 @@
         <v>20006</v>
       </c>
       <c r="T58" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U58" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V58" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="W58" s="13" t="s">
         <v>250</v>
-      </c>
-      <c r="W58" s="13" t="s">
-        <v>251</v>
       </c>
       <c r="X58" s="13">
         <v>2224568749</v>
@@ -7566,7 +7566,7 @@
         <v>43</v>
       </c>
       <c r="Z58" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA58" s="5" t="s">
         <v>44</v>
@@ -7575,7 +7575,7 @@
         <v>45</v>
       </c>
       <c r="AC58" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD58" s="13" t="s">
         <v>22</v>
@@ -7590,13 +7590,13 @@
         <v>46</v>
       </c>
       <c r="AH58" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ58" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK58" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7622,13 +7622,13 @@
         <v>6</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I59" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J59" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>10</v>
@@ -7637,10 +7637,10 @@
         <v>8009098909</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>23</v>
@@ -7658,16 +7658,16 @@
         <v>20006</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U59" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V59" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="W59" s="13" t="s">
         <v>252</v>
-      </c>
-      <c r="W59" s="13" t="s">
-        <v>253</v>
       </c>
       <c r="X59" s="13">
         <v>2224568749</v>
@@ -7676,16 +7676,16 @@
         <v>43</v>
       </c>
       <c r="Z59" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA59" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AB59" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC59" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD59" s="13" t="s">
         <v>22</v>
@@ -7700,13 +7700,13 @@
         <v>46</v>
       </c>
       <c r="AH59" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ59" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK59" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7733,7 +7733,7 @@
       </c>
       <c r="I60" s="19"/>
       <c r="J60" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>10</v>
@@ -7742,10 +7742,10 @@
         <v>8009098909</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>23</v>
@@ -7763,16 +7763,16 @@
         <v>20006</v>
       </c>
       <c r="T60" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U60" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V60" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="W60" s="13" t="s">
         <v>254</v>
-      </c>
-      <c r="W60" s="13" t="s">
-        <v>255</v>
       </c>
       <c r="X60" s="13">
         <v>2224568749</v>
@@ -7781,7 +7781,7 @@
         <v>43</v>
       </c>
       <c r="Z60" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA60" s="5" t="s">
         <v>44</v>
@@ -7790,7 +7790,7 @@
         <v>45</v>
       </c>
       <c r="AC60" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD60" s="13" t="s">
         <v>22</v>
@@ -7805,13 +7805,13 @@
         <v>46</v>
       </c>
       <c r="AH60" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ60" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK60" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7837,7 +7837,7 @@
         <v>7</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J61" s="19"/>
       <c r="K61" s="8" t="s">
@@ -7847,10 +7847,10 @@
         <v>8009098909</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O61" s="8" t="s">
         <v>23</v>
@@ -7868,16 +7868,16 @@
         <v>20006</v>
       </c>
       <c r="T61" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U61" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V61" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="W61" s="13" t="s">
         <v>256</v>
-      </c>
-      <c r="W61" s="13" t="s">
-        <v>257</v>
       </c>
       <c r="X61" s="13">
         <v>2224568749</v>
@@ -7886,7 +7886,7 @@
         <v>43</v>
       </c>
       <c r="Z61" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA61" s="5" t="s">
         <v>44</v>
@@ -7895,7 +7895,7 @@
         <v>45</v>
       </c>
       <c r="AC61" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD61" s="13" t="s">
         <v>22</v>
@@ -7910,13 +7910,13 @@
         <v>46</v>
       </c>
       <c r="AH61" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ61" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK61" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7942,20 +7942,20 @@
         <v>7</v>
       </c>
       <c r="I62" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J62" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="J62" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="K62" s="19"/>
       <c r="L62" s="8">
         <v>8009098909</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>23</v>
@@ -7973,16 +7973,16 @@
         <v>20006</v>
       </c>
       <c r="T62" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U62" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V62" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="W62" s="13" t="s">
         <v>258</v>
-      </c>
-      <c r="W62" s="13" t="s">
-        <v>259</v>
       </c>
       <c r="X62" s="13">
         <v>2224568749</v>
@@ -7991,7 +7991,7 @@
         <v>43</v>
       </c>
       <c r="Z62" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA62" s="5" t="s">
         <v>44</v>
@@ -8000,7 +8000,7 @@
         <v>45</v>
       </c>
       <c r="AC62" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD62" s="13" t="s">
         <v>22</v>
@@ -8015,13 +8015,13 @@
         <v>46</v>
       </c>
       <c r="AH62" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ62" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK62" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8047,20 +8047,20 @@
         <v>7</v>
       </c>
       <c r="I63" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J63" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="J63" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="K63" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L63" s="19"/>
       <c r="M63" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O63" s="8" t="s">
         <v>23</v>
@@ -8078,16 +8078,16 @@
         <v>20006</v>
       </c>
       <c r="T63" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U63" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V63" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="W63" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="W63" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="X63" s="13">
         <v>2224568749</v>
@@ -8096,7 +8096,7 @@
         <v>43</v>
       </c>
       <c r="Z63" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA63" s="5" t="s">
         <v>44</v>
@@ -8105,7 +8105,7 @@
         <v>45</v>
       </c>
       <c r="AC63" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD63" s="13" t="s">
         <v>22</v>
@@ -8120,13 +8120,13 @@
         <v>46</v>
       </c>
       <c r="AH63" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ63" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK63" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8152,10 +8152,10 @@
         <v>7</v>
       </c>
       <c r="I64" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J64" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="K64" s="8" t="s">
         <v>10</v>
@@ -8165,7 +8165,7 @@
       </c>
       <c r="M64" s="21"/>
       <c r="N64" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O64" s="8" t="s">
         <v>23</v>
@@ -8183,16 +8183,16 @@
         <v>20006</v>
       </c>
       <c r="T64" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U64" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V64" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="W64" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="W64" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="X64" s="13">
         <v>2224568749</v>
@@ -8201,7 +8201,7 @@
         <v>43</v>
       </c>
       <c r="Z64" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA64" s="5" t="s">
         <v>44</v>
@@ -8210,7 +8210,7 @@
         <v>45</v>
       </c>
       <c r="AC64" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD64" s="13" t="s">
         <v>22</v>
@@ -8225,13 +8225,13 @@
         <v>46</v>
       </c>
       <c r="AH64" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ64" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK64" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8257,10 +8257,10 @@
         <v>7</v>
       </c>
       <c r="I65" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J65" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="K65" s="8" t="s">
         <v>10</v>
@@ -8269,35 +8269,35 @@
         <v>8009098909</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O65" s="19"/>
       <c r="P65" s="8">
         <v>1245</v>
       </c>
       <c r="Q65" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R65" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R65" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S65" s="8">
         <v>20006</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U65" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V65" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="W65" s="13" t="s">
         <v>264</v>
-      </c>
-      <c r="W65" s="13" t="s">
-        <v>265</v>
       </c>
       <c r="X65" s="13">
         <v>2224568749</v>
@@ -8306,7 +8306,7 @@
         <v>43</v>
       </c>
       <c r="Z65" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA65" s="5" t="s">
         <v>44</v>
@@ -8315,7 +8315,7 @@
         <v>45</v>
       </c>
       <c r="AC65" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD65" s="13" t="s">
         <v>22</v>
@@ -8330,13 +8330,13 @@
         <v>46</v>
       </c>
       <c r="AH65" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ65" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK65" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8362,10 +8362,10 @@
         <v>7</v>
       </c>
       <c r="I66" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J66" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="J66" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="K66" s="8" t="s">
         <v>10</v>
@@ -8374,35 +8374,35 @@
         <v>8009098909</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P66" s="19"/>
       <c r="Q66" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R66" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R66" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S66" s="8">
         <v>20006</v>
       </c>
       <c r="T66" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U66" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V66" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="W66" s="13" t="s">
         <v>266</v>
-      </c>
-      <c r="W66" s="13" t="s">
-        <v>267</v>
       </c>
       <c r="X66" s="13">
         <v>2224568749</v>
@@ -8411,19 +8411,19 @@
         <v>43</v>
       </c>
       <c r="Z66" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA66" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB66" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC66" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD66" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD66" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE66" s="13">
         <v>80011</v>
@@ -8435,13 +8435,13 @@
         <v>46</v>
       </c>
       <c r="AH66" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ66" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK66" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8467,10 +8467,10 @@
         <v>7</v>
       </c>
       <c r="I67" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J67" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="K67" s="8" t="s">
         <v>10</v>
@@ -8479,35 +8479,35 @@
         <v>8009098909</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P67" s="8">
         <v>1245</v>
       </c>
       <c r="Q67" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R67" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R67" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S67" s="19"/>
       <c r="T67" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U67" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V67" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="W67" s="13" t="s">
         <v>268</v>
-      </c>
-      <c r="W67" s="13" t="s">
-        <v>269</v>
       </c>
       <c r="X67" s="13">
         <v>2224568749</v>
@@ -8516,19 +8516,19 @@
         <v>43</v>
       </c>
       <c r="Z67" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA67" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB67" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC67" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD67" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD67" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE67" s="13">
         <v>80011</v>
@@ -8540,13 +8540,13 @@
         <v>46</v>
       </c>
       <c r="AH67" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ67" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK67" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8572,10 +8572,10 @@
         <v>7</v>
       </c>
       <c r="I68" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J68" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="J68" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="K68" s="8" t="s">
         <v>10</v>
@@ -8584,56 +8584,56 @@
         <v>8009098909</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P68" s="8">
         <v>1245</v>
       </c>
       <c r="Q68" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R68" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R68" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S68" s="8">
         <v>80011</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U68" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V68" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="W68" s="13" t="s">
         <v>270</v>
-      </c>
-      <c r="W68" s="13" t="s">
-        <v>271</v>
       </c>
       <c r="X68" s="13">
         <v>2224568749</v>
       </c>
       <c r="Y68" s="22"/>
       <c r="Z68" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA68" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB68" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC68" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD68" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD68" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE68" s="13">
         <v>80011</v>
@@ -8645,13 +8645,13 @@
         <v>46</v>
       </c>
       <c r="AH68" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ68" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK68" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8677,10 +8677,10 @@
         <v>7</v>
       </c>
       <c r="I69" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J69" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="J69" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>10</v>
@@ -8689,37 +8689,37 @@
         <v>8009098909</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P69" s="8">
         <v>1245</v>
       </c>
       <c r="Q69" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R69" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R69" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S69" s="8">
         <v>80011</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U69" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V69" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="W69" s="13" t="s">
         <v>272</v>
-      </c>
-      <c r="W69" s="13" t="s">
-        <v>273</v>
       </c>
       <c r="X69" s="13">
         <v>2224568749</v>
@@ -8729,16 +8729,16 @@
       </c>
       <c r="Z69" s="23"/>
       <c r="AA69" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB69" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC69" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD69" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD69" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE69" s="13">
         <v>80011</v>
@@ -8750,13 +8750,13 @@
         <v>46</v>
       </c>
       <c r="AH69" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ69" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK69" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8782,10 +8782,10 @@
         <v>7</v>
       </c>
       <c r="I70" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="J70" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="J70" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="K70" s="8" t="s">
         <v>10</v>
@@ -8794,37 +8794,37 @@
         <v>8009098909</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P70" s="8">
         <v>1245</v>
       </c>
       <c r="Q70" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R70" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R70" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S70" s="8">
         <v>80011</v>
       </c>
       <c r="T70" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U70" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V70" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="W70" s="13" t="s">
         <v>274</v>
-      </c>
-      <c r="W70" s="13" t="s">
-        <v>275</v>
       </c>
       <c r="X70" s="13">
         <v>2224568749</v>
@@ -8833,17 +8833,17 @@
         <v>43</v>
       </c>
       <c r="Z70" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA70" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB70" s="20"/>
       <c r="AC70" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD70" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD70" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE70" s="13">
         <v>80011</v>
@@ -8855,13 +8855,13 @@
         <v>46</v>
       </c>
       <c r="AH70" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ70" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK70" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8887,10 +8887,10 @@
         <v>7</v>
       </c>
       <c r="I71" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J71" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="J71" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="K71" s="8" t="s">
         <v>10</v>
@@ -8899,37 +8899,37 @@
         <v>8009098909</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P71" s="8">
         <v>1245</v>
       </c>
       <c r="Q71" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R71" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R71" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S71" s="8">
         <v>80011</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U71" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V71" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="W71" s="13" t="s">
         <v>276</v>
-      </c>
-      <c r="W71" s="13" t="s">
-        <v>277</v>
       </c>
       <c r="X71" s="13">
         <v>2224568749</v>
@@ -8938,19 +8938,19 @@
         <v>43</v>
       </c>
       <c r="Z71" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA71" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AB71" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC71" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD71" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD71" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE71" s="13">
         <v>80011</v>
@@ -8960,13 +8960,13 @@
         <v>46</v>
       </c>
       <c r="AH71" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ71" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK71" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -8992,10 +8992,10 @@
         <v>7</v>
       </c>
       <c r="I72" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="J72" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="J72" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="K72" s="8" t="s">
         <v>10</v>
@@ -9004,37 +9004,37 @@
         <v>8009098909</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P72" s="8">
         <v>1245</v>
       </c>
       <c r="Q72" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R72" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R72" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S72" s="8">
         <v>80011</v>
       </c>
       <c r="T72" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U72" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V72" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="W72" s="13" t="s">
         <v>278</v>
-      </c>
-      <c r="W72" s="13" t="s">
-        <v>279</v>
       </c>
       <c r="X72" s="13">
         <v>2224568749</v>
@@ -9043,19 +9043,19 @@
         <v>43</v>
       </c>
       <c r="Z72" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA72" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB72" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC72" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD72" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD72" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE72" s="13">
         <v>80011</v>
@@ -9065,13 +9065,13 @@
       </c>
       <c r="AG72" s="20"/>
       <c r="AH72" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ72" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK72" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9097,10 +9097,10 @@
         <v>7</v>
       </c>
       <c r="I73" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J73" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="J73" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="K73" s="8" t="s">
         <v>10</v>
@@ -9109,37 +9109,37 @@
         <v>8009098909</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P73" s="8">
         <v>1245</v>
       </c>
       <c r="Q73" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R73" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R73" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S73" s="8">
         <v>80011</v>
       </c>
       <c r="T73" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U73" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V73" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="W73" s="13" t="s">
         <v>280</v>
-      </c>
-      <c r="W73" s="13" t="s">
-        <v>281</v>
       </c>
       <c r="X73" s="13">
         <v>2224568749</v>
@@ -9148,19 +9148,19 @@
         <v>43</v>
       </c>
       <c r="Z73" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA73" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB73" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC73" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD73" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD73" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE73" s="13">
         <v>80011</v>
@@ -9176,7 +9176,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK73" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9202,10 +9202,10 @@
         <v>7</v>
       </c>
       <c r="I74" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J74" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="J74" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="K74" s="8" t="s">
         <v>10</v>
@@ -9214,37 +9214,37 @@
         <v>8009098909</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P74" s="8">
         <v>1245</v>
       </c>
       <c r="Q74" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R74" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R74" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S74" s="8">
         <v>80011</v>
       </c>
       <c r="T74" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U74" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V74" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="W74" s="13" t="s">
         <v>282</v>
-      </c>
-      <c r="W74" s="13" t="s">
-        <v>283</v>
       </c>
       <c r="X74" s="13">
         <v>2224568749</v>
@@ -9253,19 +9253,19 @@
         <v>43</v>
       </c>
       <c r="Z74" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA74" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB74" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC74" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD74" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD74" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE74" s="13">
         <v>80011</v>
@@ -9277,14 +9277,14 @@
         <v>46</v>
       </c>
       <c r="AH74" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AI74" s="20"/>
       <c r="AJ74" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK74" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9310,10 +9310,10 @@
         <v>7</v>
       </c>
       <c r="I75" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J75" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="J75" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="K75" s="8" t="s">
         <v>10</v>
@@ -9322,37 +9322,37 @@
         <v>8009098909</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P75" s="8">
         <v>1245</v>
       </c>
       <c r="Q75" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R75" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R75" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S75" s="8">
         <v>80011</v>
       </c>
       <c r="T75" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U75" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V75" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="W75" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="W75" s="13" t="s">
-        <v>285</v>
       </c>
       <c r="X75" s="13">
         <v>2224568749</v>
@@ -9361,19 +9361,19 @@
         <v>43</v>
       </c>
       <c r="Z75" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA75" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AB75" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC75" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD75" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD75" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE75" s="13">
         <v>80011</v>
@@ -9385,11 +9385,11 @@
         <v>46</v>
       </c>
       <c r="AH75" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ75" s="19"/>
       <c r="AK75" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9415,10 +9415,10 @@
         <v>7</v>
       </c>
       <c r="I76" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="J76" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="J76" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="K76" s="8" t="s">
         <v>10</v>
@@ -9427,37 +9427,37 @@
         <v>8009098909</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P76" s="8">
         <v>1245</v>
       </c>
       <c r="Q76" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R76" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="R76" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S76" s="8">
         <v>80011</v>
       </c>
       <c r="T76" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U76" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V76" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="W76" s="13" t="s">
         <v>286</v>
-      </c>
-      <c r="W76" s="13" t="s">
-        <v>287</v>
       </c>
       <c r="X76" s="13">
         <v>2224568749</v>
@@ -9466,19 +9466,19 @@
         <v>43</v>
       </c>
       <c r="Z76" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA76" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AB76" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC76" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD76" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD76" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE76" s="13">
         <v>80011</v>
@@ -9490,7 +9490,7 @@
         <v>46</v>
       </c>
       <c r="AH76" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ76" s="8">
         <v>8009098908</v>
@@ -9525,7 +9525,7 @@
       <c r="L77" s="19"/>
       <c r="M77" s="19"/>
       <c r="N77" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O77" s="19"/>
       <c r="P77" s="19"/>
@@ -9537,16 +9537,16 @@
       </c>
       <c r="S77" s="19"/>
       <c r="T77" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U77" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V77" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="W77" s="13" t="s">
         <v>288</v>
-      </c>
-      <c r="W77" s="13" t="s">
-        <v>289</v>
       </c>
       <c r="X77" s="13">
         <v>2224568749</v>
@@ -9554,14 +9554,14 @@
       <c r="Y77" s="19"/>
       <c r="Z77" s="19"/>
       <c r="AA77" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB77" s="19"/>
       <c r="AC77" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD77" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD77" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE77" s="13">
         <v>80011</v>
@@ -9601,7 +9601,7 @@
       <c r="L78" s="19"/>
       <c r="M78" s="19"/>
       <c r="N78" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O78" s="19"/>
       <c r="P78" s="19"/>
@@ -9613,16 +9613,16 @@
       </c>
       <c r="S78" s="19"/>
       <c r="T78" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U78" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V78" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="W78" s="13" t="s">
         <v>290</v>
-      </c>
-      <c r="W78" s="13" t="s">
-        <v>291</v>
       </c>
       <c r="X78" s="13">
         <v>2224568749</v>
@@ -9630,14 +9630,14 @@
       <c r="Y78" s="19"/>
       <c r="Z78" s="19"/>
       <c r="AA78" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB78" s="19"/>
       <c r="AC78" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD78" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD78" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE78" s="13">
         <v>80011</v>
@@ -9672,10 +9672,10 @@
         <v>7</v>
       </c>
       <c r="I79" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J79" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="J79" s="8" t="s">
-        <v>186</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>10</v>
@@ -9684,10 +9684,10 @@
         <v>8009098909</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O79" s="8" t="s">
         <v>23</v>
@@ -9705,16 +9705,16 @@
         <v>20006</v>
       </c>
       <c r="T79" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U79" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V79" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="W79" s="13" t="s">
         <v>292</v>
-      </c>
-      <c r="W79" s="13" t="s">
-        <v>293</v>
       </c>
       <c r="X79" s="13">
         <v>2224568749</v>
@@ -9723,7 +9723,7 @@
         <v>43</v>
       </c>
       <c r="Z79" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA79" s="5" t="s">
         <v>44</v>
@@ -9732,7 +9732,7 @@
         <v>45</v>
       </c>
       <c r="AC79" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD79" s="13" t="s">
         <v>22</v>
@@ -9747,13 +9747,13 @@
         <v>46</v>
       </c>
       <c r="AH79" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ79" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK79" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9779,10 +9779,10 @@
         <v>7</v>
       </c>
       <c r="I80" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="J80" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="J80" s="8" t="s">
-        <v>190</v>
       </c>
       <c r="K80" s="8" t="s">
         <v>10</v>
@@ -9791,10 +9791,10 @@
         <v>8009098909</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O80" s="8" t="s">
         <v>23</v>
@@ -9812,16 +9812,16 @@
         <v>20006</v>
       </c>
       <c r="T80" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U80" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V80" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="W80" s="13" t="s">
         <v>294</v>
-      </c>
-      <c r="W80" s="13" t="s">
-        <v>295</v>
       </c>
       <c r="X80" s="13">
         <v>2224568749</v>
@@ -9830,7 +9830,7 @@
         <v>43</v>
       </c>
       <c r="Z80" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA80" s="5" t="s">
         <v>44</v>
@@ -9839,7 +9839,7 @@
         <v>45</v>
       </c>
       <c r="AC80" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD80" s="13" t="s">
         <v>22</v>
@@ -9854,13 +9854,13 @@
         <v>46</v>
       </c>
       <c r="AH80" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ80" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK80" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9886,10 +9886,10 @@
         <v>7</v>
       </c>
       <c r="I81" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="J81" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="J81" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="K81" s="8" t="s">
         <v>10</v>
@@ -9898,10 +9898,10 @@
         <v>8009098909</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O81" s="8" t="s">
         <v>23</v>
@@ -9919,16 +9919,16 @@
         <v>20006</v>
       </c>
       <c r="T81" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U81" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V81" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="W81" s="13" t="s">
         <v>296</v>
-      </c>
-      <c r="W81" s="13" t="s">
-        <v>297</v>
       </c>
       <c r="X81" s="13">
         <v>2224568749</v>
@@ -9937,7 +9937,7 @@
         <v>43</v>
       </c>
       <c r="Z81" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA81" s="5" t="s">
         <v>44</v>
@@ -9946,7 +9946,7 @@
         <v>45</v>
       </c>
       <c r="AC81" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD81" s="13" t="s">
         <v>22</v>
@@ -9961,13 +9961,13 @@
         <v>46</v>
       </c>
       <c r="AH81" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ81" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK81" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9993,10 +9993,10 @@
         <v>7</v>
       </c>
       <c r="I82" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J82" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="J82" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="K82" s="8" t="s">
         <v>10</v>
@@ -10005,10 +10005,10 @@
         <v>8009098909</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O82" s="8" t="s">
         <v>23</v>
@@ -10026,16 +10026,16 @@
         <v>20006</v>
       </c>
       <c r="T82" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U82" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V82" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="W82" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="W82" s="13" t="s">
-        <v>299</v>
       </c>
       <c r="X82" s="13">
         <v>2224568749</v>
@@ -10044,7 +10044,7 @@
         <v>43</v>
       </c>
       <c r="Z82" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA82" s="5" t="s">
         <v>44</v>
@@ -10053,7 +10053,7 @@
         <v>45</v>
       </c>
       <c r="AC82" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD82" s="13" t="s">
         <v>22</v>
@@ -10068,13 +10068,13 @@
         <v>46</v>
       </c>
       <c r="AH82" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ82" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK82" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -10100,10 +10100,10 @@
         <v>7</v>
       </c>
       <c r="I83" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="J83" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="J83" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="K83" s="8" t="s">
         <v>10</v>
@@ -10112,10 +10112,10 @@
         <v>8009098909</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O83" s="8" t="s">
         <v>23</v>
@@ -10133,16 +10133,16 @@
         <v>20006</v>
       </c>
       <c r="T83" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U83" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V83" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="W83" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="W83" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="X83" s="13">
         <v>2224568749</v>
@@ -10151,7 +10151,7 @@
         <v>43</v>
       </c>
       <c r="Z83" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA83" s="5" t="s">
         <v>44</v>
@@ -10160,7 +10160,7 @@
         <v>45</v>
       </c>
       <c r="AC83" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD83" s="13" t="s">
         <v>22</v>
@@ -10175,13 +10175,13 @@
         <v>46</v>
       </c>
       <c r="AH83" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ83" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK83" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -10207,10 +10207,10 @@
         <v>7</v>
       </c>
       <c r="I84" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J84" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>206</v>
       </c>
       <c r="K84" s="8" t="s">
         <v>10</v>
@@ -10219,10 +10219,10 @@
         <v>8009098909</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O84" s="8" t="s">
         <v>23</v>
@@ -10240,16 +10240,16 @@
         <v>20006</v>
       </c>
       <c r="T84" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U84" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V84" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="W84" s="13" t="s">
         <v>302</v>
-      </c>
-      <c r="W84" s="13" t="s">
-        <v>303</v>
       </c>
       <c r="X84" s="13">
         <v>2224568749</v>
@@ -10258,7 +10258,7 @@
         <v>43</v>
       </c>
       <c r="Z84" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA84" s="5" t="s">
         <v>44</v>
@@ -10267,7 +10267,7 @@
         <v>45</v>
       </c>
       <c r="AC84" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD84" s="13" t="s">
         <v>22</v>
@@ -10282,13 +10282,13 @@
         <v>46</v>
       </c>
       <c r="AH84" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ84" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK84" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -10314,13 +10314,13 @@
         <v>6</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I85" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="J85" s="8" t="s">
         <v>209</v>
-      </c>
-      <c r="J85" s="8" t="s">
-        <v>210</v>
       </c>
       <c r="K85" s="8" t="s">
         <v>10</v>
@@ -10329,10 +10329,10 @@
         <v>8009098909</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O85" s="8" t="s">
         <v>23</v>
@@ -10350,16 +10350,16 @@
         <v>20006</v>
       </c>
       <c r="T85" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U85" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V85" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="W85" s="13" t="s">
         <v>304</v>
-      </c>
-      <c r="W85" s="13" t="s">
-        <v>305</v>
       </c>
       <c r="X85" s="13">
         <v>2224568749</v>
@@ -10368,7 +10368,7 @@
         <v>43</v>
       </c>
       <c r="Z85" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA85" s="5" t="s">
         <v>44</v>
@@ -10377,7 +10377,7 @@
         <v>45</v>
       </c>
       <c r="AC85" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD85" s="13" t="s">
         <v>22</v>
@@ -10392,13 +10392,13 @@
         <v>46</v>
       </c>
       <c r="AH85" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ85" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK85" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -10429,7 +10429,7 @@
       <c r="L86" s="19"/>
       <c r="M86" s="19"/>
       <c r="N86" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O86" s="19"/>
       <c r="P86" s="19"/>
@@ -10441,16 +10441,16 @@
       </c>
       <c r="S86" s="19"/>
       <c r="T86" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U86" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V86" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="W86" s="13" t="s">
         <v>306</v>
-      </c>
-      <c r="W86" s="13" t="s">
-        <v>307</v>
       </c>
       <c r="X86" s="13">
         <v>2224568749</v>
@@ -10458,14 +10458,14 @@
       <c r="Y86" s="19"/>
       <c r="Z86" s="19"/>
       <c r="AA86" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB86" s="19"/>
       <c r="AC86" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD86" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD86" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE86" s="13">
         <v>80011</v>
@@ -10505,7 +10505,7 @@
       <c r="L87" s="19"/>
       <c r="M87" s="19"/>
       <c r="N87" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O87" s="19"/>
       <c r="P87" s="19"/>
@@ -10517,16 +10517,16 @@
       </c>
       <c r="S87" s="19"/>
       <c r="T87" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U87" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V87" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="W87" s="13" t="s">
         <v>308</v>
-      </c>
-      <c r="W87" s="13" t="s">
-        <v>309</v>
       </c>
       <c r="X87" s="13">
         <v>2224568749</v>
@@ -10534,14 +10534,14 @@
       <c r="Y87" s="19"/>
       <c r="Z87" s="19"/>
       <c r="AA87" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB87" s="19"/>
       <c r="AC87" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD87" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD87" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE87" s="13">
         <v>80011</v>
@@ -10581,7 +10581,7 @@
       <c r="L88" s="19"/>
       <c r="M88" s="19"/>
       <c r="N88" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O88" s="19"/>
       <c r="P88" s="19"/>
@@ -10593,16 +10593,16 @@
       </c>
       <c r="S88" s="19"/>
       <c r="T88" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U88" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V88" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="W88" s="13" t="s">
         <v>310</v>
-      </c>
-      <c r="W88" s="13" t="s">
-        <v>311</v>
       </c>
       <c r="X88" s="13">
         <v>2224568749</v>
@@ -10610,14 +10610,14 @@
       <c r="Y88" s="19"/>
       <c r="Z88" s="19"/>
       <c r="AA88" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB88" s="19"/>
       <c r="AC88" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD88" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD88" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE88" s="13">
         <v>80011</v>
@@ -10657,7 +10657,7 @@
       <c r="L89" s="19"/>
       <c r="M89" s="19"/>
       <c r="N89" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O89" s="19"/>
       <c r="P89" s="19"/>
@@ -10669,16 +10669,16 @@
       </c>
       <c r="S89" s="19"/>
       <c r="T89" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U89" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V89" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="W89" s="13" t="s">
         <v>312</v>
-      </c>
-      <c r="W89" s="13" t="s">
-        <v>313</v>
       </c>
       <c r="X89" s="13">
         <v>2224568749</v>
@@ -10686,14 +10686,14 @@
       <c r="Y89" s="19"/>
       <c r="Z89" s="19"/>
       <c r="AA89" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB89" s="19"/>
       <c r="AC89" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD89" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD89" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE89" s="13">
         <v>80011</v>
@@ -10733,7 +10733,7 @@
       <c r="L90" s="19"/>
       <c r="M90" s="19"/>
       <c r="N90" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O90" s="19"/>
       <c r="P90" s="19"/>
@@ -10745,16 +10745,16 @@
       </c>
       <c r="S90" s="19"/>
       <c r="T90" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U90" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V90" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="W90" s="13" t="s">
         <v>314</v>
-      </c>
-      <c r="W90" s="13" t="s">
-        <v>315</v>
       </c>
       <c r="X90" s="13">
         <v>2224568749</v>
@@ -10762,14 +10762,14 @@
       <c r="Y90" s="19"/>
       <c r="Z90" s="19"/>
       <c r="AA90" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB90" s="19"/>
       <c r="AC90" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD90" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD90" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE90" s="13">
         <v>80011</v>
@@ -10804,7 +10804,7 @@
         <v>6</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I91" s="19"/>
       <c r="J91" s="19"/>
@@ -10812,7 +10812,7 @@
       <c r="L91" s="19"/>
       <c r="M91" s="19"/>
       <c r="N91" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O91" s="19"/>
       <c r="P91" s="19"/>
@@ -10824,16 +10824,16 @@
       </c>
       <c r="S91" s="19"/>
       <c r="T91" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U91" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V91" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="W91" s="13" t="s">
         <v>316</v>
-      </c>
-      <c r="W91" s="13" t="s">
-        <v>317</v>
       </c>
       <c r="X91" s="13">
         <v>2224568749</v>
@@ -10841,14 +10841,14 @@
       <c r="Y91" s="19"/>
       <c r="Z91" s="19"/>
       <c r="AA91" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB91" s="19"/>
       <c r="AC91" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD91" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD91" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE91" s="13">
         <v>80011</v>
@@ -10888,7 +10888,7 @@
       <c r="L92" s="19"/>
       <c r="M92" s="19"/>
       <c r="N92" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O92" s="19"/>
       <c r="P92" s="19"/>
@@ -10900,16 +10900,16 @@
       </c>
       <c r="S92" s="19"/>
       <c r="T92" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U92" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V92" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="W92" s="13" t="s">
         <v>318</v>
-      </c>
-      <c r="W92" s="13" t="s">
-        <v>319</v>
       </c>
       <c r="X92" s="13">
         <v>2224568749</v>
@@ -10917,14 +10917,14 @@
       <c r="Y92" s="19"/>
       <c r="Z92" s="19"/>
       <c r="AA92" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB92" s="19"/>
       <c r="AC92" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD92" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD92" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE92" s="13">
         <v>80011</v>
@@ -10964,7 +10964,7 @@
       <c r="L93" s="19"/>
       <c r="M93" s="19"/>
       <c r="N93" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O93" s="19"/>
       <c r="P93" s="19"/>
@@ -10976,16 +10976,16 @@
       </c>
       <c r="S93" s="19"/>
       <c r="T93" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U93" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V93" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="W93" s="13" t="s">
         <v>320</v>
-      </c>
-      <c r="W93" s="13" t="s">
-        <v>321</v>
       </c>
       <c r="X93" s="13">
         <v>2224568749</v>
@@ -10993,14 +10993,14 @@
       <c r="Y93" s="19"/>
       <c r="Z93" s="19"/>
       <c r="AA93" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB93" s="19"/>
       <c r="AC93" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD93" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD93" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE93" s="13">
         <v>80011</v>
@@ -11040,7 +11040,7 @@
       <c r="L94" s="19"/>
       <c r="M94" s="19"/>
       <c r="N94" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O94" s="19"/>
       <c r="P94" s="19"/>
@@ -11052,16 +11052,16 @@
       </c>
       <c r="S94" s="19"/>
       <c r="T94" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U94" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V94" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="W94" s="13" t="s">
         <v>322</v>
-      </c>
-      <c r="W94" s="13" t="s">
-        <v>323</v>
       </c>
       <c r="X94" s="13">
         <v>2224568749</v>
@@ -11069,14 +11069,14 @@
       <c r="Y94" s="19"/>
       <c r="Z94" s="19"/>
       <c r="AA94" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB94" s="19"/>
       <c r="AC94" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD94" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD94" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE94" s="13">
         <v>80011</v>
@@ -11116,7 +11116,7 @@
       <c r="L95" s="19"/>
       <c r="M95" s="19"/>
       <c r="N95" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O95" s="19"/>
       <c r="P95" s="19"/>
@@ -11128,16 +11128,16 @@
       </c>
       <c r="S95" s="19"/>
       <c r="T95" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U95" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V95" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="W95" s="13" t="s">
         <v>324</v>
-      </c>
-      <c r="W95" s="13" t="s">
-        <v>325</v>
       </c>
       <c r="X95" s="13">
         <v>2224568749</v>
@@ -11145,14 +11145,14 @@
       <c r="Y95" s="19"/>
       <c r="Z95" s="19"/>
       <c r="AA95" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB95" s="19"/>
       <c r="AC95" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD95" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD95" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE95" s="13">
         <v>80011</v>
@@ -11192,7 +11192,7 @@
       <c r="L96" s="19"/>
       <c r="M96" s="19"/>
       <c r="N96" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O96" s="19"/>
       <c r="P96" s="19"/>
@@ -11204,16 +11204,16 @@
       </c>
       <c r="S96" s="19"/>
       <c r="T96" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U96" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V96" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="W96" s="13" t="s">
         <v>326</v>
-      </c>
-      <c r="W96" s="13" t="s">
-        <v>327</v>
       </c>
       <c r="X96" s="13">
         <v>2224568749</v>
@@ -11221,14 +11221,14 @@
       <c r="Y96" s="19"/>
       <c r="Z96" s="19"/>
       <c r="AA96" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB96" s="19"/>
       <c r="AC96" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD96" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD96" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE96" s="13">
         <v>80011</v>
@@ -11268,7 +11268,7 @@
       <c r="L97" s="19"/>
       <c r="M97" s="19"/>
       <c r="N97" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O97" s="19"/>
       <c r="P97" s="19"/>
@@ -11280,16 +11280,16 @@
       </c>
       <c r="S97" s="19"/>
       <c r="T97" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U97" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V97" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="W97" s="13" t="s">
         <v>328</v>
-      </c>
-      <c r="W97" s="13" t="s">
-        <v>329</v>
       </c>
       <c r="X97" s="13">
         <v>2224568749</v>
@@ -11297,14 +11297,14 @@
       <c r="Y97" s="19"/>
       <c r="Z97" s="19"/>
       <c r="AA97" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB97" s="19"/>
       <c r="AC97" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD97" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD97" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE97" s="13">
         <v>80011</v>
@@ -11339,7 +11339,7 @@
         <v>6</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I98" s="19"/>
       <c r="J98" s="19"/>
@@ -11347,7 +11347,7 @@
       <c r="L98" s="19"/>
       <c r="M98" s="19"/>
       <c r="N98" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O98" s="19"/>
       <c r="P98" s="19"/>
@@ -11359,16 +11359,16 @@
       </c>
       <c r="S98" s="19"/>
       <c r="T98" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="U98" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V98" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="W98" s="13" t="s">
         <v>330</v>
-      </c>
-      <c r="W98" s="13" t="s">
-        <v>331</v>
       </c>
       <c r="X98" s="13">
         <v>2224568749</v>
@@ -11376,14 +11376,14 @@
       <c r="Y98" s="19"/>
       <c r="Z98" s="19"/>
       <c r="AA98" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB98" s="19"/>
       <c r="AC98" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD98" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="AD98" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AE98" s="13">
         <v>80011</v>

--- a/src/test/resources/FHEO-Testdata4.xlsx
+++ b/src/test/resources/FHEO-Testdata4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\IdeaProjects\formservice-testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBF6180-18A1-42FE-AE07-B6127AE49567}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D6591D-C64E-4C4A-9EEF-062FA58E9A26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="333">
   <si>
     <t>race</t>
   </si>
@@ -1027,6 +1027,9 @@
   </si>
   <si>
     <t>05-12-2021</t>
+  </si>
+  <si>
+    <t>discDateWithTimestamp</t>
   </si>
 </sst>
 </file>
@@ -1972,13 +1975,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK98"/>
+  <dimension ref="A1:AL98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T2" sqref="T2:T98"/>
+      <selection pane="bottomRight" activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2023,7 +2026,7 @@
     <col min="38" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2135,8 +2138,11 @@
       <c r="AK1" s="14" t="s">
         <v>48</v>
       </c>
+      <c r="AL1" s="2" t="s">
+        <v>332</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
@@ -2212,7 +2218,7 @@
       <c r="AJ2" s="20"/>
       <c r="AK2" s="20"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
@@ -2288,7 +2294,7 @@
       <c r="AJ3" s="20"/>
       <c r="AK3" s="20"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
@@ -2364,7 +2370,7 @@
       <c r="AJ4" s="20"/>
       <c r="AK4" s="20"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
@@ -2440,7 +2446,7 @@
       <c r="AJ5" s="20"/>
       <c r="AK5" s="20"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
@@ -2519,7 +2525,7 @@
       <c r="AJ6" s="20"/>
       <c r="AK6" s="20"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
@@ -2626,7 +2632,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2733,7 +2739,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -2840,7 +2846,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2947,7 +2953,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -3054,7 +3060,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -3161,7 +3167,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
@@ -3271,7 +3277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
@@ -3376,7 +3382,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -3481,7 +3487,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
